--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.2207803759911</v>
+        <v>38.331266</v>
       </c>
       <c r="H2">
-        <v>38.2207803759911</v>
+        <v>76.662532</v>
       </c>
       <c r="I2">
-        <v>0.4940377530416938</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J2">
-        <v>0.4940377530416938</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.9769402659349</v>
+        <v>33.0547845</v>
       </c>
       <c r="N2">
-        <v>32.9769402659349</v>
+        <v>66.10956900000001</v>
       </c>
       <c r="O2">
-        <v>0.3581049418285795</v>
+        <v>0.349784046669429</v>
       </c>
       <c r="P2">
-        <v>0.3581049418285795</v>
+        <v>0.2975652419422163</v>
       </c>
       <c r="Q2">
-        <v>1260.404391376475</v>
+        <v>1267.031737242177</v>
       </c>
       <c r="R2">
-        <v>1260.404391376475</v>
+        <v>5068.126948968708</v>
       </c>
       <c r="S2">
-        <v>0.1769173608141179</v>
+        <v>0.1710794057670978</v>
       </c>
       <c r="T2">
-        <v>0.1769173608141179</v>
+        <v>0.1261600392273565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.2207803759911</v>
+        <v>38.331266</v>
       </c>
       <c r="H3">
-        <v>38.2207803759911</v>
+        <v>76.662532</v>
       </c>
       <c r="I3">
-        <v>0.4940377530416938</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J3">
-        <v>0.4940377530416938</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.553744694464019</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N3">
-        <v>0.553744694464019</v>
+        <v>1.817521</v>
       </c>
       <c r="O3">
-        <v>0.006013253807047834</v>
+        <v>0.00641097156234339</v>
       </c>
       <c r="P3">
-        <v>0.006013253807047834</v>
+        <v>0.008180828952311864</v>
       </c>
       <c r="Q3">
-        <v>21.16455435147956</v>
+        <v>23.22262697052867</v>
       </c>
       <c r="R3">
-        <v>21.16455435147956</v>
+        <v>139.335761823172</v>
       </c>
       <c r="S3">
-        <v>0.002970774399303323</v>
+        <v>0.003135606714253639</v>
       </c>
       <c r="T3">
-        <v>0.002970774399303323</v>
+        <v>0.003468461890237768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.2207803759911</v>
+        <v>38.331266</v>
       </c>
       <c r="H4">
-        <v>38.2207803759911</v>
+        <v>76.662532</v>
       </c>
       <c r="I4">
-        <v>0.4940377530416938</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J4">
-        <v>0.4940377530416938</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>30.3464919112672</v>
+        <v>0.1342126666666667</v>
       </c>
       <c r="N4">
-        <v>30.3464919112672</v>
+        <v>0.402638</v>
       </c>
       <c r="O4">
-        <v>0.3295402372976253</v>
+        <v>0.001420231605532381</v>
       </c>
       <c r="P4">
-        <v>0.3295402372976253</v>
+        <v>0.001812310618529824</v>
       </c>
       <c r="Q4">
-        <v>1159.866602522334</v>
+        <v>5.144541426569334</v>
       </c>
       <c r="R4">
-        <v>1159.866602522334</v>
+        <v>30.867248559416</v>
       </c>
       <c r="S4">
-        <v>0.1628053183713454</v>
+        <v>0.0006946353941515157</v>
       </c>
       <c r="T4">
-        <v>0.1628053183713454</v>
+        <v>0.000768373272474736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.2207803759911</v>
+        <v>38.331266</v>
       </c>
       <c r="H5">
-        <v>38.2207803759911</v>
+        <v>76.662532</v>
       </c>
       <c r="I5">
-        <v>0.4940377530416938</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J5">
-        <v>0.4940377530416938</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>28.2101875124885</v>
+        <v>0.1451576666666667</v>
       </c>
       <c r="N5">
-        <v>28.2101875124885</v>
+        <v>0.435473</v>
       </c>
       <c r="O5">
-        <v>0.3063415670667473</v>
+        <v>0.001536051038292467</v>
       </c>
       <c r="P5">
-        <v>0.3063415670667473</v>
+        <v>0.001960103969280192</v>
       </c>
       <c r="Q5">
-        <v>1078.215381280349</v>
+        <v>5.564077132939333</v>
       </c>
       <c r="R5">
-        <v>1078.215381280349</v>
+        <v>33.384462797636</v>
       </c>
       <c r="S5">
-        <v>0.1513442994569272</v>
+        <v>0.0007512826881649097</v>
       </c>
       <c r="T5">
-        <v>0.1513442994569272</v>
+        <v>0.0008310338668590413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.190808876338947</v>
+        <v>38.331266</v>
       </c>
       <c r="H6">
-        <v>0.190808876338947</v>
+        <v>76.662532</v>
       </c>
       <c r="I6">
-        <v>0.002466375296358908</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J6">
-        <v>0.002466375296358908</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.9769402659349</v>
+        <v>32.282008</v>
       </c>
       <c r="N6">
-        <v>32.9769402659349</v>
+        <v>96.846024</v>
       </c>
       <c r="O6">
-        <v>0.3581049418285795</v>
+        <v>0.3416065650905961</v>
       </c>
       <c r="P6">
-        <v>0.3581049418285795</v>
+        <v>0.435912848905454</v>
       </c>
       <c r="Q6">
-        <v>6.292292917239614</v>
+        <v>1237.410235662128</v>
       </c>
       <c r="R6">
-        <v>6.292292917239614</v>
+        <v>7424.461413972768</v>
       </c>
       <c r="S6">
-        <v>0.0008832211820300525</v>
+        <v>0.1670797988596385</v>
       </c>
       <c r="T6">
-        <v>0.0008832211820300525</v>
+        <v>0.184815880237451</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.190808876338947</v>
+        <v>38.331266</v>
       </c>
       <c r="H7">
-        <v>0.190808876338947</v>
+        <v>76.662532</v>
       </c>
       <c r="I7">
-        <v>0.002466375296358908</v>
+        <v>0.4891000815962888</v>
       </c>
       <c r="J7">
-        <v>0.002466375296358908</v>
+        <v>0.4239743808917552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.553744694464019</v>
+        <v>28.278546</v>
       </c>
       <c r="N7">
-        <v>0.553744694464019</v>
+        <v>56.557092</v>
       </c>
       <c r="O7">
-        <v>0.006013253807047834</v>
+        <v>0.2992421340338066</v>
       </c>
       <c r="P7">
-        <v>0.006013253807047834</v>
+        <v>0.2545686656122079</v>
       </c>
       <c r="Q7">
-        <v>0.105659402929333</v>
+        <v>1083.952468819236</v>
       </c>
       <c r="R7">
-        <v>0.105659402929333</v>
+        <v>4335.809875276944</v>
       </c>
       <c r="S7">
-        <v>1.483094064043893E-05</v>
+        <v>0.1463593521729824</v>
       </c>
       <c r="T7">
-        <v>1.483094064043893E-05</v>
+        <v>0.1079305923973761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.190808876338947</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H8">
-        <v>0.190808876338947</v>
+        <v>0.607664</v>
       </c>
       <c r="I8">
-        <v>0.002466375296358908</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J8">
-        <v>0.002466375296358908</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.3464919112672</v>
+        <v>33.0547845</v>
       </c>
       <c r="N8">
-        <v>30.3464919112672</v>
+        <v>66.10956900000001</v>
       </c>
       <c r="O8">
-        <v>0.3295402372976253</v>
+        <v>0.349784046669429</v>
       </c>
       <c r="P8">
-        <v>0.3295402372976253</v>
+        <v>0.2975652419422163</v>
       </c>
       <c r="Q8">
-        <v>5.790380022417839</v>
+        <v>6.695400856136001</v>
       </c>
       <c r="R8">
-        <v>5.790380022417839</v>
+        <v>40.172405136816</v>
       </c>
       <c r="S8">
-        <v>0.0008127699004271154</v>
+        <v>0.000904038285839187</v>
       </c>
       <c r="T8">
-        <v>0.0008127699004271154</v>
+        <v>0.001000004983882509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.190808876338947</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H9">
-        <v>0.190808876338947</v>
+        <v>0.607664</v>
       </c>
       <c r="I9">
-        <v>0.002466375296358908</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J9">
-        <v>0.002466375296358908</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.2101875124885</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N9">
-        <v>28.2101875124885</v>
+        <v>1.817521</v>
       </c>
       <c r="O9">
-        <v>0.3063415670667473</v>
+        <v>0.00641097156234339</v>
       </c>
       <c r="P9">
-        <v>0.3063415670667473</v>
+        <v>0.008180828952311864</v>
       </c>
       <c r="Q9">
-        <v>5.382754180568925</v>
+        <v>0.1227157867715556</v>
       </c>
       <c r="R9">
-        <v>5.382754180568925</v>
+        <v>1.104442080944</v>
       </c>
       <c r="S9">
-        <v>0.0007555532732613011</v>
+        <v>1.656954854565482E-05</v>
       </c>
       <c r="T9">
-        <v>0.0007555532732613011</v>
+        <v>2.749269259811877E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.123763038636514</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H10">
-        <v>0.123763038636514</v>
+        <v>0.607664</v>
       </c>
       <c r="I10">
-        <v>0.001599747909804686</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J10">
-        <v>0.001599747909804686</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>32.9769402659349</v>
+        <v>0.1342126666666667</v>
       </c>
       <c r="N10">
-        <v>32.9769402659349</v>
+        <v>0.402638</v>
       </c>
       <c r="O10">
-        <v>0.3581049418285795</v>
+        <v>0.001420231605532381</v>
       </c>
       <c r="P10">
-        <v>0.3581049418285795</v>
+        <v>0.001812310618529824</v>
       </c>
       <c r="Q10">
-        <v>4.081326332246915</v>
+        <v>0.02718540195911111</v>
       </c>
       <c r="R10">
-        <v>4.081326332246915</v>
+        <v>0.244668617632</v>
       </c>
       <c r="S10">
-        <v>0.0005728776321809988</v>
+        <v>3.6706755450558E-06</v>
       </c>
       <c r="T10">
-        <v>0.0005728776321809988</v>
+        <v>6.090495109724369E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.123763038636514</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H11">
-        <v>0.123763038636514</v>
+        <v>0.607664</v>
       </c>
       <c r="I11">
-        <v>0.001599747909804686</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J11">
-        <v>0.001599747909804686</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.553744694464019</v>
+        <v>0.1451576666666667</v>
       </c>
       <c r="N11">
-        <v>0.553744694464019</v>
+        <v>0.435473</v>
       </c>
       <c r="O11">
-        <v>0.006013253807047834</v>
+        <v>0.001536051038292467</v>
       </c>
       <c r="P11">
-        <v>0.006013253807047834</v>
+        <v>0.001960103969280192</v>
       </c>
       <c r="Q11">
-        <v>0.06853312601571503</v>
+        <v>0.02940236278577777</v>
       </c>
       <c r="R11">
-        <v>0.06853312601571503</v>
+        <v>0.264621265072</v>
       </c>
       <c r="S11">
-        <v>9.619690208949843E-06</v>
+        <v>3.970017960629857E-06</v>
       </c>
       <c r="T11">
-        <v>9.619690208949843E-06</v>
+        <v>6.587173036119293E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.123763038636514</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H12">
-        <v>0.123763038636514</v>
+        <v>0.607664</v>
       </c>
       <c r="I12">
-        <v>0.001599747909804686</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J12">
-        <v>0.001599747909804686</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.3464919112672</v>
+        <v>32.282008</v>
       </c>
       <c r="N12">
-        <v>30.3464919112672</v>
+        <v>96.846024</v>
       </c>
       <c r="O12">
-        <v>0.3295402372976253</v>
+        <v>0.3416065650905961</v>
       </c>
       <c r="P12">
-        <v>0.3295402372976253</v>
+        <v>0.435912848905454</v>
       </c>
       <c r="Q12">
-        <v>3.755774050896822</v>
+        <v>6.538871369770666</v>
       </c>
       <c r="R12">
-        <v>3.755774050896822</v>
+        <v>58.849842327936</v>
       </c>
       <c r="S12">
-        <v>0.0005271813058134162</v>
+        <v>0.0008829030839927853</v>
       </c>
       <c r="T12">
-        <v>0.0005271813058134162</v>
+        <v>0.001464939314143843</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.123763038636514</v>
+        <v>0.2025546666666667</v>
       </c>
       <c r="H13">
-        <v>0.123763038636514</v>
+        <v>0.607664</v>
       </c>
       <c r="I13">
-        <v>0.001599747909804686</v>
+        <v>0.002584561229842389</v>
       </c>
       <c r="J13">
-        <v>0.001599747909804686</v>
+        <v>0.00336062430328035</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.2101875124885</v>
+        <v>28.278546</v>
       </c>
       <c r="N13">
-        <v>28.2101875124885</v>
+        <v>56.557092</v>
       </c>
       <c r="O13">
-        <v>0.3063415670667473</v>
+        <v>0.2992421340338066</v>
       </c>
       <c r="P13">
-        <v>0.3063415670667473</v>
+        <v>0.2545686656122079</v>
       </c>
       <c r="Q13">
-        <v>3.491378527051419</v>
+        <v>5.727951458848</v>
       </c>
       <c r="R13">
-        <v>3.491378527051419</v>
+        <v>34.367708753088</v>
       </c>
       <c r="S13">
-        <v>0.0004900692816013209</v>
+        <v>0.0007734096179590762</v>
       </c>
       <c r="T13">
-        <v>0.0004900692816013209</v>
+        <v>0.0008555096445100344</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.298009792959289</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H14">
-        <v>0.298009792959289</v>
+        <v>0.449336</v>
       </c>
       <c r="I14">
-        <v>0.003852042973735587</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J14">
-        <v>0.003852042973735587</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.9769402659349</v>
+        <v>33.0547845</v>
       </c>
       <c r="N14">
-        <v>32.9769402659349</v>
+        <v>66.10956900000001</v>
       </c>
       <c r="O14">
-        <v>0.3581049418285795</v>
+        <v>0.349784046669429</v>
       </c>
       <c r="P14">
-        <v>0.3581049418285795</v>
+        <v>0.2975652419422163</v>
       </c>
       <c r="Q14">
-        <v>9.827451141082099</v>
+        <v>4.950901549364001</v>
       </c>
       <c r="R14">
-        <v>9.827451141082099</v>
+        <v>29.705409296184</v>
       </c>
       <c r="S14">
-        <v>0.001379435625030771</v>
+        <v>0.000668489407313642</v>
       </c>
       <c r="T14">
-        <v>0.001379435625030771</v>
+        <v>0.0007394518013866729</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.298009792959289</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H15">
-        <v>0.298009792959289</v>
+        <v>0.449336</v>
       </c>
       <c r="I15">
-        <v>0.003852042973735587</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J15">
-        <v>0.003852042973735587</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.553744694464019</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N15">
-        <v>0.553744694464019</v>
+        <v>1.817521</v>
       </c>
       <c r="O15">
-        <v>0.006013253807047834</v>
+        <v>0.00641097156234339</v>
       </c>
       <c r="P15">
-        <v>0.006013253807047834</v>
+        <v>0.008180828952311864</v>
       </c>
       <c r="Q15">
-        <v>0.165021341749527</v>
+        <v>0.09074195733955558</v>
       </c>
       <c r="R15">
-        <v>0.165021341749527</v>
+        <v>0.8166776160560001</v>
       </c>
       <c r="S15">
-        <v>2.316331207672738E-05</v>
+        <v>1.225232145611778E-05</v>
       </c>
       <c r="T15">
-        <v>2.316331207672738E-05</v>
+        <v>2.032941974720947E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.298009792959289</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H16">
-        <v>0.298009792959289</v>
+        <v>0.449336</v>
       </c>
       <c r="I16">
-        <v>0.003852042973735587</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J16">
-        <v>0.003852042973735587</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>30.3464919112672</v>
+        <v>0.1342126666666667</v>
       </c>
       <c r="N16">
-        <v>30.3464919112672</v>
+        <v>0.402638</v>
       </c>
       <c r="O16">
-        <v>0.3295402372976253</v>
+        <v>0.001420231605532381</v>
       </c>
       <c r="P16">
-        <v>0.3295402372976253</v>
+        <v>0.001812310618529824</v>
       </c>
       <c r="Q16">
-        <v>9.043551771517476</v>
+        <v>0.02010219426311111</v>
       </c>
       <c r="R16">
-        <v>9.043551771517476</v>
+        <v>0.180919748368</v>
       </c>
       <c r="S16">
-        <v>0.001269403155645475</v>
+        <v>2.714274116474225E-06</v>
       </c>
       <c r="T16">
-        <v>0.001269403155645475</v>
+        <v>4.503605134783547E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.298009792959289</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H17">
-        <v>0.298009792959289</v>
+        <v>0.449336</v>
       </c>
       <c r="I17">
-        <v>0.003852042973735587</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J17">
-        <v>0.003852042973735587</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>28.2101875124885</v>
+        <v>0.1451576666666667</v>
       </c>
       <c r="N17">
-        <v>28.2101875124885</v>
+        <v>0.435473</v>
       </c>
       <c r="O17">
-        <v>0.3063415670667473</v>
+        <v>0.001536051038292467</v>
       </c>
       <c r="P17">
-        <v>0.3063415670667473</v>
+        <v>0.001960103969280192</v>
       </c>
       <c r="Q17">
-        <v>8.406912139939417</v>
+        <v>0.02174152176977778</v>
       </c>
       <c r="R17">
-        <v>8.406912139939417</v>
+        <v>0.195673695928</v>
       </c>
       <c r="S17">
-        <v>0.001180040880982613</v>
+        <v>2.93562230172855E-06</v>
       </c>
       <c r="T17">
-        <v>0.001180040880982613</v>
+        <v>4.870872691746917E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.0891565851232</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H18">
-        <v>23.0891565851232</v>
+        <v>0.449336</v>
       </c>
       <c r="I18">
-        <v>0.2984479889402651</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J18">
-        <v>0.2984479889402651</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.9769402659349</v>
+        <v>32.282008</v>
       </c>
       <c r="N18">
-        <v>32.9769402659349</v>
+        <v>96.846024</v>
       </c>
       <c r="O18">
-        <v>0.3581049418285795</v>
+        <v>0.3416065650905961</v>
       </c>
       <c r="P18">
-        <v>0.3581049418285795</v>
+        <v>0.435912848905454</v>
       </c>
       <c r="Q18">
-        <v>761.4097374984252</v>
+        <v>4.835156115562667</v>
       </c>
       <c r="R18">
-        <v>761.4097374984252</v>
+        <v>43.516405040064</v>
       </c>
       <c r="S18">
-        <v>0.1068756997183102</v>
+        <v>0.0006528610221256849</v>
       </c>
       <c r="T18">
-        <v>0.1068756997183102</v>
+        <v>0.001083246615991959</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.0891565851232</v>
+        <v>0.1497786666666667</v>
       </c>
       <c r="H19">
-        <v>23.0891565851232</v>
+        <v>0.449336</v>
       </c>
       <c r="I19">
-        <v>0.2984479889402651</v>
+        <v>0.001911148932259373</v>
       </c>
       <c r="J19">
-        <v>0.2984479889402651</v>
+        <v>0.00248500730986002</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.553744694464019</v>
+        <v>28.278546</v>
       </c>
       <c r="N19">
-        <v>0.553744694464019</v>
+        <v>56.557092</v>
       </c>
       <c r="O19">
-        <v>0.006013253807047834</v>
+        <v>0.2992421340338066</v>
       </c>
       <c r="P19">
-        <v>0.006013253807047834</v>
+        <v>0.2545686656122079</v>
       </c>
       <c r="Q19">
-        <v>12.78549795866094</v>
+        <v>4.235522915152</v>
       </c>
       <c r="R19">
-        <v>12.78549795866094</v>
+        <v>25.413137490912</v>
       </c>
       <c r="S19">
-        <v>0.001794643505700819</v>
+        <v>0.0005718962849457258</v>
       </c>
       <c r="T19">
-        <v>0.001794643505700819</v>
+        <v>0.0006326049949076476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.0891565851232</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H20">
-        <v>23.0891565851232</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I20">
-        <v>0.2984479889402651</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J20">
-        <v>0.2984479889402651</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.3464919112672</v>
+        <v>33.0547845</v>
       </c>
       <c r="N20">
-        <v>30.3464919112672</v>
+        <v>66.10956900000001</v>
       </c>
       <c r="O20">
-        <v>0.3295402372976253</v>
+        <v>0.349784046669429</v>
       </c>
       <c r="P20">
-        <v>0.3295402372976253</v>
+        <v>0.2975652419422163</v>
       </c>
       <c r="Q20">
-        <v>700.674903548423</v>
+        <v>10.5562547770435</v>
       </c>
       <c r="R20">
-        <v>700.674903548423</v>
+        <v>63.33752866226101</v>
       </c>
       <c r="S20">
-        <v>0.09835062109637402</v>
+        <v>0.001425345349528134</v>
       </c>
       <c r="T20">
-        <v>0.09835062109637402</v>
+        <v>0.001576650541916802</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.0891565851232</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H21">
-        <v>23.0891565851232</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I21">
-        <v>0.2984479889402651</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J21">
-        <v>0.2984479889402651</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>28.2101875124885</v>
+        <v>0.6058403333333334</v>
       </c>
       <c r="N21">
-        <v>28.2101875124885</v>
+        <v>1.817521</v>
       </c>
       <c r="O21">
-        <v>0.3063415670667473</v>
+        <v>0.00641097156234339</v>
       </c>
       <c r="P21">
-        <v>0.3063415670667473</v>
+        <v>0.008180828952311864</v>
       </c>
       <c r="Q21">
-        <v>651.3494367715341</v>
+        <v>0.1934789474387778</v>
       </c>
       <c r="R21">
-        <v>651.3494367715341</v>
+        <v>1.741310526949</v>
       </c>
       <c r="S21">
-        <v>0.09142702461988007</v>
+        <v>2.612425749359344E-05</v>
       </c>
       <c r="T21">
-        <v>0.09142702461988007</v>
+        <v>4.334615265144398E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4415696838617</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H22">
-        <v>15.4415696838617</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I22">
-        <v>0.1995960918381419</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J22">
-        <v>0.1995960918381419</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>32.9769402659349</v>
+        <v>0.1342126666666667</v>
       </c>
       <c r="N22">
-        <v>32.9769402659349</v>
+        <v>0.402638</v>
       </c>
       <c r="O22">
-        <v>0.3581049418285795</v>
+        <v>0.001420231605532381</v>
       </c>
       <c r="P22">
-        <v>0.3581049418285795</v>
+        <v>0.001812310618529824</v>
       </c>
       <c r="Q22">
-        <v>509.2157210769785</v>
+        <v>0.04286166511355556</v>
       </c>
       <c r="R22">
-        <v>509.2157210769785</v>
+        <v>0.385754986022</v>
       </c>
       <c r="S22">
-        <v>0.07147634685690964</v>
+        <v>5.787343743871722E-06</v>
       </c>
       <c r="T22">
-        <v>0.07147634685690964</v>
+        <v>9.602534557384535E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4415696838617</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H23">
-        <v>15.4415696838617</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I23">
-        <v>0.1995960918381419</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J23">
-        <v>0.1995960918381419</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.553744694464019</v>
+        <v>0.1451576666666667</v>
       </c>
       <c r="N23">
-        <v>0.553744694464019</v>
+        <v>0.435473</v>
       </c>
       <c r="O23">
-        <v>0.006013253807047834</v>
+        <v>0.001536051038292467</v>
       </c>
       <c r="P23">
-        <v>0.006013253807047834</v>
+        <v>0.001960103969280192</v>
       </c>
       <c r="Q23">
-        <v>8.550687286634854</v>
+        <v>0.04635702018188889</v>
       </c>
       <c r="R23">
-        <v>8.550687286634854</v>
+        <v>0.4172131816370001</v>
       </c>
       <c r="S23">
-        <v>0.001200221959117576</v>
+        <v>6.259299773431842E-06</v>
       </c>
       <c r="T23">
-        <v>0.001200221959117576</v>
+        <v>1.038561817639645E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4415696838617</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H24">
-        <v>15.4415696838617</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I24">
-        <v>0.1995960918381419</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J24">
-        <v>0.1995960918381419</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.3464919112672</v>
+        <v>32.282008</v>
       </c>
       <c r="N24">
-        <v>30.3464919112672</v>
+        <v>96.846024</v>
       </c>
       <c r="O24">
-        <v>0.3295402372976253</v>
+        <v>0.3416065650905961</v>
       </c>
       <c r="P24">
-        <v>0.3295402372976253</v>
+        <v>0.435912848905454</v>
       </c>
       <c r="Q24">
-        <v>468.5974695085779</v>
+        <v>10.30946370751733</v>
       </c>
       <c r="R24">
-        <v>468.5974695085779</v>
+        <v>92.785173367656</v>
       </c>
       <c r="S24">
-        <v>0.0657749434680199</v>
+        <v>0.001392022688159713</v>
       </c>
       <c r="T24">
-        <v>0.0657749434680199</v>
+        <v>0.002309685852317198</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4415696838617</v>
+        <v>0.3193563333333334</v>
       </c>
       <c r="H25">
-        <v>15.4415696838617</v>
+        <v>0.9580690000000001</v>
       </c>
       <c r="I25">
-        <v>0.1995960918381419</v>
+        <v>0.004074929554678026</v>
       </c>
       <c r="J25">
-        <v>0.1995960918381419</v>
+        <v>0.005298503721825715</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.2101875124885</v>
+        <v>28.278546</v>
       </c>
       <c r="N25">
-        <v>28.2101875124885</v>
+        <v>56.557092</v>
       </c>
       <c r="O25">
-        <v>0.3063415670667473</v>
+        <v>0.2992421340338066</v>
       </c>
       <c r="P25">
-        <v>0.3063415670667473</v>
+        <v>0.2545686656122079</v>
       </c>
       <c r="Q25">
-        <v>435.6095762688963</v>
+        <v>9.030932762558001</v>
       </c>
       <c r="R25">
-        <v>435.6095762688963</v>
+        <v>54.185596575348</v>
       </c>
       <c r="S25">
-        <v>0.06114457955409481</v>
+        <v>0.001219390615979282</v>
       </c>
       <c r="T25">
-        <v>0.06114457955409481</v>
+        <v>0.001348833022206489</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>23.40508</v>
+      </c>
+      <c r="H26">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J26">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>33.0547845</v>
+      </c>
+      <c r="N26">
+        <v>66.10956900000001</v>
+      </c>
+      <c r="O26">
+        <v>0.349784046669429</v>
+      </c>
+      <c r="P26">
+        <v>0.2975652419422163</v>
+      </c>
+      <c r="Q26">
+        <v>773.6498756052601</v>
+      </c>
+      <c r="R26">
+        <v>4641.899253631561</v>
+      </c>
+      <c r="S26">
+        <v>0.1044611252425471</v>
+      </c>
+      <c r="T26">
+        <v>0.1155500242642423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>23.40508</v>
+      </c>
+      <c r="H27">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J27">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6058403333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.817521</v>
+      </c>
+      <c r="O27">
+        <v>0.00641097156234339</v>
+      </c>
+      <c r="P27">
+        <v>0.008180828952311864</v>
+      </c>
+      <c r="Q27">
+        <v>14.17974146889334</v>
+      </c>
+      <c r="R27">
+        <v>127.61767322004</v>
+      </c>
+      <c r="S27">
+        <v>0.001914602194345566</v>
+      </c>
+      <c r="T27">
+        <v>0.003176765464176145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>23.40508</v>
+      </c>
+      <c r="H28">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J28">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1342126666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.402638</v>
+      </c>
+      <c r="O28">
+        <v>0.001420231605532381</v>
+      </c>
+      <c r="P28">
+        <v>0.001812310618529824</v>
+      </c>
+      <c r="Q28">
+        <v>3.141258200346667</v>
+      </c>
+      <c r="R28">
+        <v>28.27132380312</v>
+      </c>
+      <c r="S28">
+        <v>0.0004241445344108321</v>
+      </c>
+      <c r="T28">
+        <v>0.0007037533502858864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>23.40508</v>
+      </c>
+      <c r="H29">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J29">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.1451576666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.435473</v>
+      </c>
+      <c r="O29">
+        <v>0.001536051038292467</v>
+      </c>
+      <c r="P29">
+        <v>0.001960103969280192</v>
+      </c>
+      <c r="Q29">
+        <v>3.397426800946667</v>
+      </c>
+      <c r="R29">
+        <v>30.57684120852</v>
+      </c>
+      <c r="S29">
+        <v>0.0004587333854069617</v>
+      </c>
+      <c r="T29">
+        <v>0.0007611442107030281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>23.40508</v>
+      </c>
+      <c r="H30">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J30">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>32.282008</v>
+      </c>
+      <c r="N30">
+        <v>96.846024</v>
+      </c>
+      <c r="O30">
+        <v>0.3416065650905961</v>
+      </c>
+      <c r="P30">
+        <v>0.435912848905454</v>
+      </c>
+      <c r="Q30">
+        <v>755.5629798006401</v>
+      </c>
+      <c r="R30">
+        <v>6800.066818205761</v>
+      </c>
+      <c r="S30">
+        <v>0.1020189643278088</v>
+      </c>
+      <c r="T30">
+        <v>0.1692729296585702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>23.40508</v>
+      </c>
+      <c r="H31">
+        <v>70.21524000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2986446244109879</v>
+      </c>
+      <c r="J31">
+        <v>0.3883182844543408</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>28.278546</v>
+      </c>
+      <c r="N31">
+        <v>56.557092</v>
+      </c>
+      <c r="O31">
+        <v>0.2992421340338066</v>
+      </c>
+      <c r="P31">
+        <v>0.2545686656122079</v>
+      </c>
+      <c r="Q31">
+        <v>661.86163141368</v>
+      </c>
+      <c r="R31">
+        <v>3971.16978848208</v>
+      </c>
+      <c r="S31">
+        <v>0.08936705472646866</v>
+      </c>
+      <c r="T31">
+        <v>0.0988536675063633</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>15.9629715</v>
+      </c>
+      <c r="H32">
+        <v>31.925943</v>
+      </c>
+      <c r="I32">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J32">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>33.0547845</v>
+      </c>
+      <c r="N32">
+        <v>66.10956900000001</v>
+      </c>
+      <c r="O32">
+        <v>0.349784046669429</v>
+      </c>
+      <c r="P32">
+        <v>0.2975652419422163</v>
+      </c>
+      <c r="Q32">
+        <v>527.6525829121418</v>
+      </c>
+      <c r="R32">
+        <v>2110.610331648567</v>
+      </c>
+      <c r="S32">
+        <v>0.07124564261710319</v>
+      </c>
+      <c r="T32">
+        <v>0.05253907112343156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>15.9629715</v>
+      </c>
+      <c r="H33">
+        <v>31.925943</v>
+      </c>
+      <c r="I33">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J33">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.6058403333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.817521</v>
+      </c>
+      <c r="O33">
+        <v>0.00641097156234339</v>
+      </c>
+      <c r="P33">
+        <v>0.008180828952311864</v>
+      </c>
+      <c r="Q33">
+        <v>9.671011974550503</v>
+      </c>
+      <c r="R33">
+        <v>58.02607184730302</v>
+      </c>
+      <c r="S33">
+        <v>0.00130581652624882</v>
+      </c>
+      <c r="T33">
+        <v>0.001444433332901179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>15.9629715</v>
+      </c>
+      <c r="H34">
+        <v>31.925943</v>
+      </c>
+      <c r="I34">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J34">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1342126666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.402638</v>
+      </c>
+      <c r="O34">
+        <v>0.001420231605532381</v>
+      </c>
+      <c r="P34">
+        <v>0.001812310618529824</v>
+      </c>
+      <c r="Q34">
+        <v>2.142432972939</v>
+      </c>
+      <c r="R34">
+        <v>12.854597837634</v>
+      </c>
+      <c r="S34">
+        <v>0.0002892793835646314</v>
+      </c>
+      <c r="T34">
+        <v>0.0003199873609673092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>15.9629715</v>
+      </c>
+      <c r="H35">
+        <v>31.925943</v>
+      </c>
+      <c r="I35">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J35">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.1451576666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.435473</v>
+      </c>
+      <c r="O35">
+        <v>0.001536051038292467</v>
+      </c>
+      <c r="P35">
+        <v>0.001960103969280192</v>
+      </c>
+      <c r="Q35">
+        <v>2.3171476960065</v>
+      </c>
+      <c r="R35">
+        <v>13.902886176039</v>
+      </c>
+      <c r="S35">
+        <v>0.0003128700246848054</v>
+      </c>
+      <c r="T35">
+        <v>0.0003460822278138602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>15.9629715</v>
+      </c>
+      <c r="H36">
+        <v>31.925943</v>
+      </c>
+      <c r="I36">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J36">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>32.282008</v>
+      </c>
+      <c r="N36">
+        <v>96.846024</v>
+      </c>
+      <c r="O36">
+        <v>0.3416065650905961</v>
+      </c>
+      <c r="P36">
+        <v>0.435912848905454</v>
+      </c>
+      <c r="Q36">
+        <v>515.3167736667721</v>
+      </c>
+      <c r="R36">
+        <v>3091.900642000632</v>
+      </c>
+      <c r="S36">
+        <v>0.06958001510887073</v>
+      </c>
+      <c r="T36">
+        <v>0.07696616722697978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>15.9629715</v>
+      </c>
+      <c r="H37">
+        <v>31.925943</v>
+      </c>
+      <c r="I37">
+        <v>0.2036846542759437</v>
+      </c>
+      <c r="J37">
+        <v>0.176563199318938</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>28.278546</v>
+      </c>
+      <c r="N37">
+        <v>56.557092</v>
+      </c>
+      <c r="O37">
+        <v>0.2992421340338066</v>
+      </c>
+      <c r="P37">
+        <v>0.2545686656122079</v>
+      </c>
+      <c r="Q37">
+        <v>451.409623859439</v>
+      </c>
+      <c r="R37">
+        <v>1805.638495437756</v>
+      </c>
+      <c r="S37">
+        <v>0.0609510306154715</v>
+      </c>
+      <c r="T37">
+        <v>0.04494745804684435</v>
       </c>
     </row>
   </sheetData>
